--- a/server/data/all/users.xlsx
+++ b/server/data/all/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dypark/code/lottery/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC79488-F086-5448-ACEB-6F91C5001AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046436D-9D72-8B46-A251-A7E52117C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26240" yWindow="8000" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="166">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배민화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주성돈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,12 +322,6 @@
     <t>076</t>
   </si>
   <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
     <t>한승오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,30 +346,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유성용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황교자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박기현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신상욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우아미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이현정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최규민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강현우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,10 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이준호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박현수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신도움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>류형오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,10 +632,20 @@
     <t>065</t>
   </si>
   <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>080</t>
+    <t>유상욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한동걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하슬비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1134,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="18"/>
@@ -1156,888 +1128,864 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19">
       <c r="A10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19">
       <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19">
       <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
       <c r="A24" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">
       <c r="A36" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19">
       <c r="A37" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
       <c r="A40" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
       <c r="A41" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
       <c r="A43" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
       <c r="A44" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
       <c r="A45" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
       <c r="A46" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
       <c r="A49" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
       <c r="A50" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
       <c r="A51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
       <c r="A58" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
       <c r="A59" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
       <c r="A60" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
       <c r="A61" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
       <c r="A62" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
       <c r="A63" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
       <c r="A64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
       <c r="A65" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>4</v>
+        <v>161</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19">
       <c r="A67" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19">
       <c r="A68" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19">
       <c r="A69" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19">
       <c r="A70" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19">
       <c r="A71" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19">
       <c r="A72" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="19">
-      <c r="A78" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="19">
-      <c r="A79" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="19">
-      <c r="A80" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="19">
-      <c r="A81" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>165</v>
-      </c>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2"/>
@@ -2091,22 +2039,18 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2"/>
-      <c r="B92" s="5"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2"/>
-      <c r="B93" s="5"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2"/>
-      <c r="B94" s="5"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2"/>
-      <c r="B95" s="5"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
@@ -2135,6 +2079,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
@@ -2143,6 +2088,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
@@ -2151,7 +2097,6 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2"/>
-      <c r="B106" s="4"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
@@ -2160,7 +2105,6 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
-      <c r="B108" s="4"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
@@ -2179,115 +2123,95 @@
       <c r="A112" s="2"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" s="2"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" s="2"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" s="2"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" s="2"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" s="2"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" s="2"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" s="2"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" s="2"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" s="2"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" s="2"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" s="2"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" s="2"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" s="2"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" s="2"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:4">
+    <row r="127" spans="1:4">
+      <c r="A127" s="3"/>
+      <c r="D127" s="1" t="e" cm="1">
+        <f t="array" ref="D127">+A107B69:D127</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" s="3"/>
-      <c r="D132" s="1" t="e" cm="1">
-        <f t="array" ref="D132">+A107B69:D132</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:1">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:1">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:1">
       <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="3"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server/data/all/users.xlsx
+++ b/server/data/all/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dypark/code/lottery/server/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dypark/code/lottery/server/data/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046436D-9D72-8B46-A251-A7E52117C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AF0F30-98A8-EA46-B297-064551681903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26240" yWindow="8000" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,14 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이성택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황현주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원선관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,26 +466,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깅경섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김두한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백용재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이경숙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최경찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강현우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,13 +626,54 @@
   <si>
     <t>하슬비</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손형규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서승원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신도움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +741,11 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -758,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +816,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="18"/>
@@ -1139,7 +1168,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19">
@@ -1150,7 +1179,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19">
@@ -1161,7 +1190,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19">
@@ -1172,7 +1201,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19">
@@ -1183,7 +1212,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19">
@@ -1194,7 +1223,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19">
@@ -1202,10 +1231,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19">
@@ -1216,18 +1245,18 @@
         <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>158</v>
+      <c r="B10" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19">
@@ -1235,21 +1264,21 @@
         <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>92</v>
+      <c r="B12" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19">
@@ -1257,10 +1286,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19">
@@ -1268,10 +1297,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19">
@@ -1279,10 +1308,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19">
@@ -1290,10 +1319,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
@@ -1301,10 +1330,10 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
@@ -1312,10 +1341,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
@@ -1323,10 +1352,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
@@ -1334,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
@@ -1345,10 +1374,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19">
@@ -1356,10 +1385,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19">
@@ -1367,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19">
@@ -1378,10 +1407,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19">
@@ -1389,10 +1418,10 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19">
@@ -1400,10 +1429,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19">
@@ -1411,10 +1440,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19">
@@ -1422,10 +1451,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19">
@@ -1433,10 +1462,10 @@
         <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19">
@@ -1444,10 +1473,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19">
@@ -1455,10 +1484,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19">
@@ -1466,10 +1495,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19">
@@ -1477,10 +1506,10 @@
         <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
@@ -1488,10 +1517,10 @@
         <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
@@ -1499,10 +1528,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19">
@@ -1510,10 +1539,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19">
@@ -1521,10 +1550,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
@@ -1532,10 +1561,10 @@
         <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
@@ -1543,10 +1572,10 @@
         <v>46</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19">
@@ -1554,10 +1583,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19">
@@ -1565,10 +1594,10 @@
         <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19">
@@ -1576,10 +1605,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19">
@@ -1587,10 +1616,10 @@
         <v>50</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19">
@@ -1598,10 +1627,10 @@
         <v>51</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19">
@@ -1609,10 +1638,10 @@
         <v>52</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19">
@@ -1620,10 +1649,10 @@
         <v>53</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19">
@@ -1631,10 +1660,10 @@
         <v>54</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19">
@@ -1642,10 +1671,10 @@
         <v>55</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19">
@@ -1653,10 +1682,10 @@
         <v>56</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19">
@@ -1664,10 +1693,10 @@
         <v>57</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19">
@@ -1675,10 +1704,10 @@
         <v>58</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19">
@@ -1686,10 +1715,10 @@
         <v>59</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19">
@@ -1697,10 +1726,10 @@
         <v>60</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19">
@@ -1708,10 +1737,10 @@
         <v>61</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19">
@@ -1719,10 +1748,10 @@
         <v>62</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19">
@@ -1730,10 +1759,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19">
@@ -1741,10 +1770,10 @@
         <v>64</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19">
@@ -1752,10 +1781,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19">
@@ -1763,10 +1792,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19">
@@ -1777,7 +1806,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19">
@@ -1788,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19">
@@ -1799,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19">
@@ -1807,10 +1836,10 @@
         <v>70</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19">
@@ -1821,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19">
@@ -1829,21 +1858,21 @@
         <v>72</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19">
       <c r="A66" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19">
@@ -1851,10 +1880,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19">
@@ -1862,10 +1891,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19">
@@ -1873,10 +1902,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19">
@@ -1884,10 +1913,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19">
@@ -1895,10 +1924,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19">
@@ -1906,10 +1935,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19">
@@ -1917,10 +1946,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19">
@@ -1928,10 +1957,10 @@
         <v>80</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19">
@@ -1939,21 +1968,21 @@
         <v>81</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>145</v>
+      <c r="B76" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19">
@@ -1961,26 +1990,44 @@
         <v>83</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="19">
+      <c r="A78" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="19">
+      <c r="A79" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="19">
+      <c r="A80" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2"/>
@@ -2039,14 +2086,17 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
@@ -2079,7 +2129,6 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2"/>
-      <c r="B102" s="4"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
@@ -2088,11 +2137,11 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2"/>
-      <c r="B104" s="4"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
@@ -2101,6 +2150,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3">
@@ -2123,95 +2173,107 @@
       <c r="A112" s="2"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:3">
       <c r="A113" s="2"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:3">
       <c r="A114" s="2"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:3">
       <c r="A115" s="2"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:3">
       <c r="A116" s="2"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:3">
       <c r="A117" s="2"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:3">
       <c r="A118" s="2"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:3">
       <c r="A119" s="2"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:3">
       <c r="A120" s="2"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:3">
       <c r="A121" s="2"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:3">
       <c r="A122" s="2"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:3">
       <c r="A123" s="2"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:3">
       <c r="A124" s="2"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:3">
       <c r="A125" s="2"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:3">
       <c r="A126" s="2"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="3"/>
-      <c r="D127" s="1" t="e" cm="1">
-        <f t="array" ref="D127">+A107B69:D127</f>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3"/>
+      <c r="D130" s="1" t="e" cm="1">
+        <f t="array" ref="D130">+A107B69:D130</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="3"/>
-    </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:4">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:4">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:4">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:4">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:4">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:4">
       <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
